--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T15:01:03+00:00</t>
+    <t>2022-07-26T16:26:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T16:26:43+00:00</t>
+    <t>2022-07-26T21:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T21:15:41+00:00</t>
+    <t>2022-07-27T03:08:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T03:08:26+00:00</t>
+    <t>2022-07-27T10:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T10:14:11+00:00</t>
+    <t>2022-07-29T08:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T08:56:42+00:00</t>
+    <t>2022-07-29T11:29:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
+++ b/jpcore-r4/feature/swg3-practioner免許コードの追加/ValueSet-jp-procedure-code-medical-vs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Procedure Codes(Medical)</t>
+    <t>JP Core Procedure Codes Medical</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T11:29:59+00:00</t>
+    <t>2022-08-03T10:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Procedureで使用する処置のコード 医科診療行為マスタ</t>
+    <t>処置のコード:医科診療行為マスタ</t>
   </si>
   <si>
     <t>Purpose</t>
